--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H2">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I2">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J2">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>490.021123318345</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N2">
-        <v>490.021123318345</v>
+        <v>1651.14743</v>
       </c>
       <c r="O2">
-        <v>0.6009291716231846</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P2">
-        <v>0.6009291716231846</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q2">
-        <v>2780.434544305109</v>
+        <v>3797.249051284869</v>
       </c>
       <c r="R2">
-        <v>2780.434544305109</v>
+        <v>34175.24146156382</v>
       </c>
       <c r="S2">
-        <v>0.09041537512353663</v>
+        <v>0.1057720375096624</v>
       </c>
       <c r="T2">
-        <v>0.09041537512353663</v>
+        <v>0.1057720375096624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H3">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I3">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J3">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>216.739038472724</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N3">
-        <v>216.739038472724</v>
+        <v>654.373214</v>
       </c>
       <c r="O3">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P3">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q3">
-        <v>1229.801494246065</v>
+        <v>1504.903814705226</v>
       </c>
       <c r="R3">
-        <v>1229.801494246065</v>
+        <v>13544.13433234703</v>
       </c>
       <c r="S3">
-        <v>0.03999121779632952</v>
+        <v>0.04191896306711166</v>
       </c>
       <c r="T3">
-        <v>0.03999121779632952</v>
+        <v>0.04191896306711166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H4">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I4">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J4">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.09688419632338</v>
+        <v>0.451923</v>
       </c>
       <c r="N4">
-        <v>2.09688419632338</v>
+        <v>1.355769</v>
       </c>
       <c r="O4">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P4">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q4">
-        <v>11.89795496035653</v>
+        <v>3.117948437234</v>
       </c>
       <c r="R4">
-        <v>11.89795496035653</v>
+        <v>28.061535935106</v>
       </c>
       <c r="S4">
-        <v>0.0003869028541408928</v>
+        <v>8.685017880107621E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003869028541408928</v>
+        <v>8.685017880107624E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.67411160865158</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H5">
-        <v>5.67411160865158</v>
+        <v>20.697874</v>
       </c>
       <c r="I5">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J5">
-        <v>0.1504592877049278</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>106.582021473315</v>
+        <v>1.091144</v>
       </c>
       <c r="N5">
-        <v>106.582021473315</v>
+        <v>3.273432</v>
       </c>
       <c r="O5">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P5">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q5">
-        <v>604.7582853152885</v>
+        <v>7.528120342618667</v>
       </c>
       <c r="R5">
-        <v>604.7582853152885</v>
+        <v>67.753083083568</v>
       </c>
       <c r="S5">
-        <v>0.01966579193092071</v>
+        <v>0.0002096951283685971</v>
       </c>
       <c r="T5">
-        <v>0.01966579193092071</v>
+        <v>0.0002096951283685971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.3252857026496</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H6">
-        <v>9.3252857026496</v>
+        <v>20.697874</v>
       </c>
       <c r="I6">
-        <v>0.2472767441384606</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J6">
-        <v>0.2472767441384606</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>490.021123318345</v>
+        <v>2.325947</v>
       </c>
       <c r="N6">
-        <v>490.021123318345</v>
+        <v>6.977841</v>
       </c>
       <c r="O6">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P6">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q6">
-        <v>4569.586975276859</v>
+        <v>16.04738597889266</v>
       </c>
       <c r="R6">
-        <v>4569.586975276859</v>
+        <v>144.426473810034</v>
       </c>
       <c r="S6">
-        <v>0.1485958090168033</v>
+        <v>0.0004469985214999609</v>
       </c>
       <c r="T6">
-        <v>0.1485958090168033</v>
+        <v>0.0004469985214999609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.3252857026496</v>
+        <v>6.899291333333333</v>
       </c>
       <c r="H7">
-        <v>9.3252857026496</v>
+        <v>20.697874</v>
       </c>
       <c r="I7">
-        <v>0.2472767441384606</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="J7">
-        <v>0.2472767441384606</v>
+        <v>0.1714739209386085</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>216.739038472724</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N7">
-        <v>216.739038472724</v>
+        <v>359.654671</v>
       </c>
       <c r="O7">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P7">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q7">
-        <v>2021.153456675715</v>
+        <v>827.1207848743837</v>
       </c>
       <c r="R7">
-        <v>2021.153456675715</v>
+        <v>7444.087063869454</v>
       </c>
       <c r="S7">
-        <v>0.0657247437605977</v>
+        <v>0.02303937653316475</v>
       </c>
       <c r="T7">
-        <v>0.0657247437605977</v>
+        <v>0.02303937653316476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H8">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I8">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J8">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.09688419632338</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N8">
-        <v>2.09688419632338</v>
+        <v>1651.14743</v>
       </c>
       <c r="O8">
-        <v>0.002571478703924644</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P8">
-        <v>0.002571478703924644</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q8">
-        <v>19.55404421608631</v>
+        <v>5247.945348674614</v>
       </c>
       <c r="R8">
-        <v>19.55404421608631</v>
+        <v>47231.50813807152</v>
       </c>
       <c r="S8">
-        <v>0.0006358668815278745</v>
+        <v>0.146181054961577</v>
       </c>
       <c r="T8">
-        <v>0.0006358668815278745</v>
+        <v>0.146181054961577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.3252857026496</v>
+        <v>9.535088</v>
       </c>
       <c r="H9">
-        <v>9.3252857026496</v>
+        <v>28.605264</v>
       </c>
       <c r="I9">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J9">
-        <v>0.2472767441384606</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.582021473315</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N9">
-        <v>106.582021473315</v>
+        <v>654.373214</v>
       </c>
       <c r="O9">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P9">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q9">
-        <v>993.907801004597</v>
+        <v>2079.835393444277</v>
       </c>
       <c r="R9">
-        <v>993.907801004597</v>
+        <v>18718.5185409985</v>
       </c>
       <c r="S9">
-        <v>0.03232032447953172</v>
+        <v>0.05793363149959163</v>
       </c>
       <c r="T9">
-        <v>0.03232032447953172</v>
+        <v>0.05793363149959165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.02672108731401</v>
+        <v>9.535088</v>
       </c>
       <c r="H10">
-        <v>7.02672108731401</v>
+        <v>28.605264</v>
       </c>
       <c r="I10">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J10">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>490.021123318345</v>
+        <v>0.451923</v>
       </c>
       <c r="N10">
-        <v>490.021123318345</v>
+        <v>1.355769</v>
       </c>
       <c r="O10">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P10">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q10">
-        <v>3443.241760450314</v>
+        <v>4.309125574224</v>
       </c>
       <c r="R10">
-        <v>3443.241760450314</v>
+        <v>38.782130168016</v>
       </c>
       <c r="S10">
-        <v>0.111968827336645</v>
+        <v>0.000120030312922573</v>
       </c>
       <c r="T10">
-        <v>0.111968827336645</v>
+        <v>0.0001200303129225731</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.02672108731401</v>
+        <v>9.535088</v>
       </c>
       <c r="H11">
-        <v>7.02672108731401</v>
+        <v>28.605264</v>
       </c>
       <c r="I11">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J11">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>216.739038472724</v>
+        <v>1.091144</v>
       </c>
       <c r="N11">
-        <v>216.739038472724</v>
+        <v>3.273432</v>
       </c>
       <c r="O11">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P11">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q11">
-        <v>1522.964772080452</v>
+        <v>10.404154060672</v>
       </c>
       <c r="R11">
-        <v>1522.964772080452</v>
+        <v>93.63738654604799</v>
       </c>
       <c r="S11">
-        <v>0.0495244282767317</v>
+        <v>0.000289806793997181</v>
       </c>
       <c r="T11">
-        <v>0.0495244282767317</v>
+        <v>0.0002898067939971811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.02672108731401</v>
+        <v>9.535088</v>
       </c>
       <c r="H12">
-        <v>7.02672108731401</v>
+        <v>28.605264</v>
       </c>
       <c r="I12">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J12">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.09688419632338</v>
+        <v>2.325947</v>
       </c>
       <c r="N12">
-        <v>2.09688419632338</v>
+        <v>6.977841</v>
       </c>
       <c r="O12">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P12">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q12">
-        <v>14.73422039996098</v>
+        <v>22.178109328336</v>
       </c>
       <c r="R12">
-        <v>14.73422039996098</v>
+        <v>199.602983955024</v>
       </c>
       <c r="S12">
-        <v>0.0004791337625062792</v>
+        <v>0.0006177692798359897</v>
       </c>
       <c r="T12">
-        <v>0.0004791337625062792</v>
+        <v>0.0006177692798359899</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.02672108731401</v>
+        <v>9.535088</v>
       </c>
       <c r="H13">
-        <v>7.02672108731401</v>
+        <v>28.605264</v>
       </c>
       <c r="I13">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="J13">
-        <v>0.1863261639207882</v>
+        <v>0.2369836040920929</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.582021473315</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N13">
-        <v>106.582021473315</v>
+        <v>359.654671</v>
       </c>
       <c r="O13">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P13">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q13">
-        <v>748.922137815097</v>
+        <v>1143.112979198683</v>
       </c>
       <c r="R13">
-        <v>748.922137815097</v>
+        <v>10288.01681278814</v>
       </c>
       <c r="S13">
-        <v>0.02435377454490526</v>
+        <v>0.03184131124416848</v>
       </c>
       <c r="T13">
-        <v>0.02435377454490526</v>
+        <v>0.03184131124416849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.33948951786307</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H14">
-        <v>4.33948951786307</v>
+        <v>23.811736</v>
       </c>
       <c r="I14">
-        <v>0.1150693794716949</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J14">
-        <v>0.1150693794716949</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>490.021123318345</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N14">
-        <v>490.021123318345</v>
+        <v>1651.14743</v>
       </c>
       <c r="O14">
-        <v>0.6009291716231846</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P14">
-        <v>0.6009291716231846</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q14">
-        <v>2126.441528171445</v>
+        <v>4368.520744470942</v>
       </c>
       <c r="R14">
-        <v>2126.441528171445</v>
+        <v>39316.68670023848</v>
       </c>
       <c r="S14">
-        <v>0.06914854688511951</v>
+        <v>0.1216847601527663</v>
       </c>
       <c r="T14">
-        <v>0.06914854688511951</v>
+        <v>0.1216847601527664</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.33948951786307</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H15">
-        <v>4.33948951786307</v>
+        <v>23.811736</v>
       </c>
       <c r="I15">
-        <v>0.1150693794716949</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J15">
-        <v>0.1150693794716949</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>216.739038472724</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N15">
-        <v>216.739038472724</v>
+        <v>654.373214</v>
       </c>
       <c r="O15">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P15">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q15">
-        <v>940.5367855641065</v>
+        <v>1731.306913026611</v>
       </c>
       <c r="R15">
-        <v>940.5367855641065</v>
+        <v>15581.7622172395</v>
       </c>
       <c r="S15">
-        <v>0.03058478267666507</v>
+        <v>0.04822540140827086</v>
       </c>
       <c r="T15">
-        <v>0.03058478267666507</v>
+        <v>0.04822540140827088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.33948951786307</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H16">
-        <v>4.33948951786307</v>
+        <v>23.811736</v>
       </c>
       <c r="I16">
-        <v>0.1150693794716949</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J16">
-        <v>0.1150693794716949</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.09688419632338</v>
+        <v>0.451923</v>
       </c>
       <c r="N16">
-        <v>2.09688419632338</v>
+        <v>1.355769</v>
       </c>
       <c r="O16">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P16">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q16">
-        <v>9.099406990118036</v>
+        <v>3.587023722776</v>
       </c>
       <c r="R16">
-        <v>9.099406990118036</v>
+        <v>32.283213504984</v>
       </c>
       <c r="S16">
-        <v>0.0002958984587852871</v>
+        <v>9.991622952019241E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002958984587852871</v>
+        <v>9.991622952019244E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.33948951786307</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H17">
-        <v>4.33948951786307</v>
+        <v>23.811736</v>
       </c>
       <c r="I17">
-        <v>0.1150693794716949</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J17">
-        <v>0.1150693794716949</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>106.582021473315</v>
+        <v>1.091144</v>
       </c>
       <c r="N17">
-        <v>106.582021473315</v>
+        <v>3.273432</v>
       </c>
       <c r="O17">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P17">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q17">
-        <v>462.5115649761071</v>
+        <v>8.660677621994667</v>
       </c>
       <c r="R17">
-        <v>462.5115649761071</v>
+        <v>77.94609859795199</v>
       </c>
       <c r="S17">
-        <v>0.01504015145112506</v>
+        <v>0.0002412424115249298</v>
       </c>
       <c r="T17">
-        <v>0.01504015145112506</v>
+        <v>0.0002412424115249298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.17437859783556</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H18">
-        <v>6.17437859783556</v>
+        <v>23.811736</v>
       </c>
       <c r="I18">
-        <v>0.1637247678446104</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J18">
-        <v>0.1637247678446104</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>490.021123318345</v>
+        <v>2.325947</v>
       </c>
       <c r="N18">
-        <v>490.021123318345</v>
+        <v>6.977841</v>
       </c>
       <c r="O18">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P18">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q18">
-        <v>3025.575936304129</v>
+        <v>18.46161197133066</v>
       </c>
       <c r="R18">
-        <v>3025.575936304129</v>
+        <v>166.154507741976</v>
       </c>
       <c r="S18">
-        <v>0.09838698911505996</v>
+        <v>0.0005142465736503851</v>
       </c>
       <c r="T18">
-        <v>0.09838698911505996</v>
+        <v>0.0005142465736503852</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.17437859783556</v>
+        <v>7.937245333333332</v>
       </c>
       <c r="H19">
-        <v>6.17437859783556</v>
+        <v>23.811736</v>
       </c>
       <c r="I19">
-        <v>0.1637247678446104</v>
+        <v>0.197271069302819</v>
       </c>
       <c r="J19">
-        <v>0.1637247678446104</v>
+        <v>0.1972710693028191</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>216.739038472724</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N19">
-        <v>216.739038472724</v>
+        <v>359.654671</v>
       </c>
       <c r="O19">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P19">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q19">
-        <v>1338.228880461445</v>
+        <v>951.5557863354284</v>
       </c>
       <c r="R19">
-        <v>1338.228880461445</v>
+        <v>8564.002077018855</v>
       </c>
       <c r="S19">
-        <v>0.04351710651700009</v>
+        <v>0.02650550252708632</v>
       </c>
       <c r="T19">
-        <v>0.04351710651700009</v>
+        <v>0.02650550252708633</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.17437859783556</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H20">
-        <v>6.17437859783556</v>
+        <v>13.272464</v>
       </c>
       <c r="I20">
-        <v>0.1637247678446104</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J20">
-        <v>0.1637247678446104</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.09688419632338</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N20">
-        <v>2.09688419632338</v>
+        <v>1651.14743</v>
       </c>
       <c r="O20">
-        <v>0.002571478703924644</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P20">
-        <v>0.002571478703924644</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q20">
-        <v>12.94695690391869</v>
+        <v>2434.977202596392</v>
       </c>
       <c r="R20">
-        <v>12.94695690391869</v>
+        <v>21914.79482336752</v>
       </c>
       <c r="S20">
-        <v>0.0004210147538174221</v>
+        <v>0.0678260752796951</v>
       </c>
       <c r="T20">
-        <v>0.0004210147538174221</v>
+        <v>0.06782607527969513</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.17437859783556</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H21">
-        <v>6.17437859783556</v>
+        <v>13.272464</v>
       </c>
       <c r="I21">
-        <v>0.1637247678446104</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J21">
-        <v>0.1637247678446104</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>106.582021473315</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N21">
-        <v>106.582021473315</v>
+        <v>654.373214</v>
       </c>
       <c r="O21">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P21">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q21">
-        <v>658.0777522988861</v>
+        <v>965.0161028199217</v>
       </c>
       <c r="R21">
-        <v>658.0777522988861</v>
+        <v>8685.144925379294</v>
       </c>
       <c r="S21">
-        <v>0.02139965745873297</v>
+        <v>0.02688043845592881</v>
       </c>
       <c r="T21">
-        <v>0.02139965745873297</v>
+        <v>0.02688043845592882</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.17195334133222</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H22">
-        <v>5.17195334133222</v>
+        <v>13.272464</v>
       </c>
       <c r="I22">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J22">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>490.021123318345</v>
+        <v>0.451923</v>
       </c>
       <c r="N22">
-        <v>490.021123318345</v>
+        <v>1.355769</v>
       </c>
       <c r="O22">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P22">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q22">
-        <v>2534.366386069682</v>
+        <v>1.999377249424</v>
       </c>
       <c r="R22">
-        <v>2534.366386069682</v>
+        <v>17.994395244816</v>
       </c>
       <c r="S22">
-        <v>0.08241362414602021</v>
+        <v>5.569247699212234E-05</v>
       </c>
       <c r="T22">
-        <v>0.08241362414602021</v>
+        <v>5.569247699212236E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.17195334133222</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H23">
-        <v>5.17195334133222</v>
+        <v>13.272464</v>
       </c>
       <c r="I23">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J23">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>216.739038472724</v>
+        <v>1.091144</v>
       </c>
       <c r="N23">
-        <v>216.739038472724</v>
+        <v>3.273432</v>
       </c>
       <c r="O23">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P23">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q23">
-        <v>1120.964194226137</v>
+        <v>4.827389819605334</v>
       </c>
       <c r="R23">
-        <v>1120.964194226137</v>
+        <v>43.446508376448</v>
       </c>
       <c r="S23">
-        <v>0.03645199932096922</v>
+        <v>0.0001344665177808882</v>
       </c>
       <c r="T23">
-        <v>0.03645199932096922</v>
+        <v>0.0001344665177808882</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.17195334133222</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H24">
-        <v>5.17195334133222</v>
+        <v>13.272464</v>
       </c>
       <c r="I24">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J24">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.09688419632338</v>
+        <v>2.325947</v>
       </c>
       <c r="N24">
-        <v>2.09688419632338</v>
+        <v>6.977841</v>
       </c>
       <c r="O24">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P24">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q24">
-        <v>10.84498722556143</v>
+        <v>10.29034927446933</v>
       </c>
       <c r="R24">
-        <v>10.84498722556143</v>
+        <v>92.61314347022399</v>
       </c>
       <c r="S24">
-        <v>0.0003526619931468883</v>
+        <v>0.0002866367717119863</v>
       </c>
       <c r="T24">
-        <v>0.0003526619931468883</v>
+        <v>0.0002866367717119864</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.17195334133222</v>
+        <v>4.424154666666666</v>
       </c>
       <c r="H25">
-        <v>5.17195334133222</v>
+        <v>13.272464</v>
       </c>
       <c r="I25">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="J25">
-        <v>0.137143656919518</v>
+        <v>0.1099572566050275</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>106.582021473315</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N25">
-        <v>106.582021473315</v>
+        <v>359.654671</v>
       </c>
       <c r="O25">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P25">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q25">
-        <v>551.2372420848538</v>
+        <v>530.3892970310382</v>
       </c>
       <c r="R25">
-        <v>551.2372420848538</v>
+        <v>4773.503673279344</v>
       </c>
       <c r="S25">
-        <v>0.01792537145938173</v>
+        <v>0.01477394710291859</v>
       </c>
       <c r="T25">
-        <v>0.01792537145938173</v>
+        <v>0.01477394710291859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H26">
+        <v>18.609263</v>
+      </c>
+      <c r="I26">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J26">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>550.3824766666668</v>
+      </c>
+      <c r="N26">
+        <v>1651.14743</v>
+      </c>
+      <c r="O26">
+        <v>0.6168403739221149</v>
+      </c>
+      <c r="P26">
+        <v>0.616840373922115</v>
+      </c>
+      <c r="Q26">
+        <v>3414.070752960456</v>
+      </c>
+      <c r="R26">
+        <v>30726.6367766441</v>
+      </c>
+      <c r="S26">
+        <v>0.09509863979571878</v>
+      </c>
+      <c r="T26">
+        <v>0.09509863979571881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H27">
+        <v>18.609263</v>
+      </c>
+      <c r="I27">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J27">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N27">
+        <v>654.373214</v>
+      </c>
+      <c r="O27">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P27">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q27">
+        <v>1353.044804386809</v>
+      </c>
+      <c r="R27">
+        <v>12177.40323948128</v>
+      </c>
+      <c r="S27">
+        <v>0.03768894372451816</v>
+      </c>
+      <c r="T27">
+        <v>0.03768894372451817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H28">
+        <v>18.609263</v>
+      </c>
+      <c r="I28">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J28">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.451923</v>
+      </c>
+      <c r="N28">
+        <v>1.355769</v>
+      </c>
+      <c r="O28">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P28">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q28">
+        <v>2.803317987583001</v>
+      </c>
+      <c r="R28">
+        <v>25.229861888247</v>
+      </c>
+      <c r="S28">
+        <v>7.808617536787846E-05</v>
+      </c>
+      <c r="T28">
+        <v>7.808617536787849E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H29">
+        <v>18.609263</v>
+      </c>
+      <c r="I29">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J29">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>1.091144</v>
+      </c>
+      <c r="N29">
+        <v>3.273432</v>
+      </c>
+      <c r="O29">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P29">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q29">
+        <v>6.768461888957335</v>
+      </c>
+      <c r="R29">
+        <v>60.91615700061601</v>
+      </c>
+      <c r="S29">
+        <v>0.0001885349091230329</v>
+      </c>
+      <c r="T29">
+        <v>0.0001885349091230329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H30">
+        <v>18.609263</v>
+      </c>
+      <c r="I30">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J30">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.325947</v>
+      </c>
+      <c r="N30">
+        <v>6.977841</v>
+      </c>
+      <c r="O30">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P30">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q30">
+        <v>14.42805314902033</v>
+      </c>
+      <c r="R30">
+        <v>129.852478341183</v>
+      </c>
+      <c r="S30">
+        <v>0.00040189214830489</v>
+      </c>
+      <c r="T30">
+        <v>0.0004018921483048901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.203087666666668</v>
+      </c>
+      <c r="H31">
+        <v>18.609263</v>
+      </c>
+      <c r="I31">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="J31">
+        <v>0.1541705825626232</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N31">
+        <v>359.654671</v>
+      </c>
+      <c r="O31">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P31">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q31">
+        <v>743.656484646386</v>
+      </c>
+      <c r="R31">
+        <v>6692.908361817474</v>
+      </c>
+      <c r="S31">
+        <v>0.02071448580959045</v>
+      </c>
+      <c r="T31">
+        <v>0.02071448580959046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H32">
+        <v>15.709066</v>
+      </c>
+      <c r="I32">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J32">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>550.3824766666668</v>
+      </c>
+      <c r="N32">
+        <v>1651.14743</v>
+      </c>
+      <c r="O32">
+        <v>0.6168403739221149</v>
+      </c>
+      <c r="P32">
+        <v>0.616840373922115</v>
+      </c>
+      <c r="Q32">
+        <v>2881.998217066709</v>
+      </c>
+      <c r="R32">
+        <v>25937.98395360038</v>
+      </c>
+      <c r="S32">
+        <v>0.08027780622269524</v>
+      </c>
+      <c r="T32">
+        <v>0.08027780622269529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H33">
+        <v>15.709066</v>
+      </c>
+      <c r="I33">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J33">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N33">
+        <v>654.373214</v>
+      </c>
+      <c r="O33">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P33">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q33">
+        <v>1142.176889706458</v>
+      </c>
+      <c r="R33">
+        <v>10279.59200735812</v>
+      </c>
+      <c r="S33">
+        <v>0.03181523655390014</v>
+      </c>
+      <c r="T33">
+        <v>0.03181523655390015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H34">
+        <v>15.709066</v>
+      </c>
+      <c r="I34">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J34">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.451923</v>
+      </c>
+      <c r="N34">
+        <v>1.355769</v>
+      </c>
+      <c r="O34">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P34">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q34">
+        <v>2.366429411306</v>
+      </c>
+      <c r="R34">
+        <v>21.297864701754</v>
+      </c>
+      <c r="S34">
+        <v>6.591668259734826E-05</v>
+      </c>
+      <c r="T34">
+        <v>6.591668259734828E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H35">
+        <v>15.709066</v>
+      </c>
+      <c r="I35">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J35">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>1.091144</v>
+      </c>
+      <c r="N35">
+        <v>3.273432</v>
+      </c>
+      <c r="O35">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P35">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q35">
+        <v>5.713617703834667</v>
+      </c>
+      <c r="R35">
+        <v>51.422559334512</v>
+      </c>
+      <c r="S35">
+        <v>0.0001591523173549498</v>
+      </c>
+      <c r="T35">
+        <v>0.0001591523173549498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H36">
+        <v>15.709066</v>
+      </c>
+      <c r="I36">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J36">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.325947</v>
+      </c>
+      <c r="N36">
+        <v>6.977841</v>
+      </c>
+      <c r="O36">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P36">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q36">
+        <v>12.17948497850066</v>
+      </c>
+      <c r="R36">
+        <v>109.615364806506</v>
+      </c>
+      <c r="S36">
+        <v>0.0003392584801774957</v>
+      </c>
+      <c r="T36">
+        <v>0.0003392584801774958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.236355333333333</v>
+      </c>
+      <c r="H37">
+        <v>15.709066</v>
+      </c>
+      <c r="I37">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="J37">
+        <v>0.1301435664988289</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N37">
+        <v>359.654671</v>
+      </c>
+      <c r="O37">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P37">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q37">
+        <v>627.7598848830318</v>
+      </c>
+      <c r="R37">
+        <v>5649.838963947286</v>
+      </c>
+      <c r="S37">
+        <v>0.01748619624210372</v>
+      </c>
+      <c r="T37">
+        <v>0.01748619624210372</v>
       </c>
     </row>
   </sheetData>
